--- a/public/excel/Sektor 3.xlsx
+++ b/public/excel/Sektor 3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMER\LARAVEL\gkps-sidorame\public\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD37D169-9B34-443C-A303-089B1522C157}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="245">
   <si>
     <t>KODE KELUARGA</t>
   </si>
@@ -36,40 +42,730 @@
     <t>KATEGORIAL</t>
   </si>
   <si>
-    <t>St. Annauli br Girsang</t>
-  </si>
-  <si>
-    <t>Dian Bernhard Munthe</t>
-  </si>
-  <si>
-    <t>Dewi Olivia</t>
-  </si>
-  <si>
-    <t>Arif Budima Munthe</t>
-  </si>
-  <si>
-    <t>Sarlina Jiniati br hombing</t>
-  </si>
-  <si>
-    <t>Anugrah Y. Munthe</t>
-  </si>
-  <si>
-    <t>Andrial Tulus Munthe</t>
-  </si>
-  <si>
-    <t>Syakia Yoselyn Munthe</t>
-  </si>
-  <si>
     <t>001_0</t>
   </si>
   <si>
-    <t>002_1</t>
+    <t>St. Rosmalince br Saragih</t>
+  </si>
+  <si>
+    <t>Mima Mardeliana br Purba</t>
+  </si>
+  <si>
+    <t>002_0</t>
+  </si>
+  <si>
+    <t>Herta Hotrida br Purba</t>
+  </si>
+  <si>
+    <t>003_0</t>
+  </si>
+  <si>
+    <t>Elimarito br Manurung</t>
+  </si>
+  <si>
+    <t>004_0</t>
+  </si>
+  <si>
+    <t>Ebenezeria br Manurung</t>
+  </si>
+  <si>
+    <t>005_1</t>
+  </si>
+  <si>
+    <t>Drs. Alexius Purba</t>
+  </si>
+  <si>
+    <t>Kasminah br Nainggolan</t>
+  </si>
+  <si>
+    <t>Christina Agustina br Purba</t>
+  </si>
+  <si>
+    <t>Andy Andriadi Purba</t>
+  </si>
+  <si>
+    <t>006_1</t>
+  </si>
+  <si>
+    <t>Jerikho Hanggara Munthe</t>
+  </si>
+  <si>
+    <t>Yolanda Regina br Purba</t>
+  </si>
+  <si>
+    <t>007_0</t>
+  </si>
+  <si>
+    <t>Romaida br Marpaung</t>
+  </si>
+  <si>
+    <t>Immanuel Sandro Purba</t>
+  </si>
+  <si>
+    <t>008_1</t>
+  </si>
+  <si>
+    <t>St. Ir. Edwin Saragih</t>
+  </si>
+  <si>
+    <t>Samuelisna br Sormin</t>
+  </si>
+  <si>
+    <t>Victoria Saragih</t>
+  </si>
+  <si>
+    <t>009_0</t>
+  </si>
+  <si>
+    <t>St. Samaria br Malau</t>
+  </si>
+  <si>
+    <t>Janson Sinabutar</t>
+  </si>
+  <si>
+    <t>Novandi Sinabutar</t>
+  </si>
+  <si>
+    <t>010_0</t>
+  </si>
+  <si>
+    <t>H Deliana br Samosir</t>
+  </si>
+  <si>
+    <t>Melisa br Dabukke</t>
+  </si>
+  <si>
+    <t>Silvia Dabukke</t>
+  </si>
+  <si>
+    <t>Kevin Andreas</t>
+  </si>
+  <si>
+    <t>011_1</t>
+  </si>
+  <si>
+    <t>Jhon Henririk Purba</t>
+  </si>
+  <si>
+    <t>Br Marpaung</t>
+  </si>
+  <si>
+    <t>Ucok</t>
+  </si>
+  <si>
+    <t>012_0</t>
+  </si>
+  <si>
+    <t>Novita Nainggolan</t>
+  </si>
+  <si>
+    <t>Argason Hendra Purba</t>
+  </si>
+  <si>
+    <t>Justina Purba</t>
+  </si>
+  <si>
+    <t>Jordan Purba</t>
+  </si>
+  <si>
+    <t>013_0</t>
+  </si>
+  <si>
+    <t>Normanita br Damanik</t>
+  </si>
+  <si>
+    <t>014_1</t>
+  </si>
+  <si>
+    <t>St. Rawadi Purba</t>
+  </si>
+  <si>
+    <t>St. Rontauli br Saragih</t>
+  </si>
+  <si>
+    <t>015_1</t>
+  </si>
+  <si>
+    <t>Darwin Purba</t>
+  </si>
+  <si>
+    <t>St. Beslida S Saragih</t>
+  </si>
+  <si>
+    <t>Eduardo Purba</t>
+  </si>
+  <si>
+    <t>Ricardo Purba</t>
+  </si>
+  <si>
+    <t>016_1</t>
+  </si>
+  <si>
+    <t>St. Jahotman E Saragih S</t>
+  </si>
+  <si>
+    <t>Tio Rugun br Hutabarat</t>
+  </si>
+  <si>
+    <t>Harry Christian Saragih</t>
+  </si>
+  <si>
+    <t>017_0</t>
+  </si>
+  <si>
+    <t>Jefri Girsang</t>
+  </si>
+  <si>
+    <t>Yessi Veni br Girsang</t>
+  </si>
+  <si>
+    <t>018_0</t>
+  </si>
+  <si>
+    <t>Porsa Manihuruk</t>
+  </si>
+  <si>
+    <t>019_0</t>
+  </si>
+  <si>
+    <t>Ny. Simon Sipayung Sukaeni</t>
+  </si>
+  <si>
+    <t>Angga Prayuda Sipayung</t>
+  </si>
+  <si>
+    <t>Diah Anna Sipayung</t>
+  </si>
+  <si>
+    <t>020_0</t>
+  </si>
+  <si>
+    <t>St. Deliana P Tanjung</t>
+  </si>
+  <si>
+    <t>021_1</t>
+  </si>
+  <si>
+    <t>Richi Rajimot Damanik</t>
+  </si>
+  <si>
+    <t>Desi Agustina Tampubolon</t>
+  </si>
+  <si>
+    <t>Ivander Amoreiza Damanik</t>
+  </si>
+  <si>
+    <t>022_0</t>
+  </si>
+  <si>
+    <t>Karpina H. br Saragih</t>
+  </si>
+  <si>
+    <t>023_1</t>
+  </si>
+  <si>
+    <t>St. Ir. Johanes Sinaga</t>
+  </si>
+  <si>
+    <t>Lestriana br Damanik</t>
+  </si>
+  <si>
+    <t>Oscar A Sinaga</t>
+  </si>
+  <si>
+    <t>Stefan F Sinaga</t>
+  </si>
+  <si>
+    <t>Oktaviando Sinaga</t>
+  </si>
+  <si>
+    <t>024_1</t>
+  </si>
+  <si>
+    <t>Zabriadi Sinaga</t>
+  </si>
+  <si>
+    <t>Rumondang Panggabean</t>
+  </si>
+  <si>
+    <t>Timothy Sinaga</t>
+  </si>
+  <si>
+    <t>025_0</t>
+  </si>
+  <si>
+    <t>Nurmalina br Saragih</t>
+  </si>
+  <si>
+    <t>Rudolf Freddy Sipayung</t>
+  </si>
+  <si>
+    <t>Robert Hasri Sipayung</t>
+  </si>
+  <si>
+    <t>026_0</t>
+  </si>
+  <si>
+    <t>Rosliany br Saragih</t>
+  </si>
+  <si>
+    <t>027_0</t>
+  </si>
+  <si>
+    <t>Henny br Sinaga</t>
+  </si>
+  <si>
+    <t>Rikky Yakob Purba</t>
+  </si>
+  <si>
+    <t>Debora Purba</t>
+  </si>
+  <si>
+    <t>Intan Purba</t>
+  </si>
+  <si>
+    <t>Frans Purba</t>
+  </si>
+  <si>
+    <t>Bobby Purba</t>
+  </si>
+  <si>
+    <t>028_1</t>
+  </si>
+  <si>
+    <t>St. Johnny Girsang</t>
+  </si>
+  <si>
+    <t>Ratna br Nainggolan</t>
+  </si>
+  <si>
+    <t>Thomas Julian Girsang</t>
+  </si>
+  <si>
+    <t>029_0</t>
+  </si>
+  <si>
+    <t>St. Djamen Girsang</t>
+  </si>
+  <si>
+    <t>Monica Girsang</t>
+  </si>
+  <si>
+    <t>030_0</t>
+  </si>
+  <si>
+    <t>St. Salmon Sinaga</t>
+  </si>
+  <si>
+    <t>031_1</t>
+  </si>
+  <si>
+    <t>Barisaman Saragih</t>
+  </si>
+  <si>
+    <t>St. Asminah br Sinaga</t>
+  </si>
+  <si>
+    <t>WD Fitriani br Saragih</t>
+  </si>
+  <si>
+    <t>Csy. Sartika Saragih</t>
+  </si>
+  <si>
+    <t>032_1</t>
+  </si>
+  <si>
+    <t>Martuahdin Sinaga</t>
+  </si>
+  <si>
+    <t>Br Batubara</t>
+  </si>
+  <si>
+    <t>033_1</t>
+  </si>
+  <si>
+    <t>Sayaman Sitopu</t>
+  </si>
+  <si>
+    <t>Tangkas Dina br Pakpahan</t>
+  </si>
+  <si>
+    <t>Yoel Brando Sitopu</t>
+  </si>
+  <si>
+    <t>Dhea Sitopu</t>
+  </si>
+  <si>
+    <t>Ello Yosua Sitopu</t>
+  </si>
+  <si>
+    <t>034_1</t>
+  </si>
+  <si>
+    <t>St. Drs Mahlen Saragih</t>
+  </si>
+  <si>
+    <t>Rusliana br Sembiring</t>
+  </si>
+  <si>
+    <t>Mira Tantri Saragih</t>
+  </si>
+  <si>
+    <t>May Gladys T br Saragih</t>
+  </si>
+  <si>
+    <t>035_1</t>
+  </si>
+  <si>
+    <t>Abdi RH Sinaga</t>
+  </si>
+  <si>
+    <t>Dewi Rosita br Hutabarat</t>
+  </si>
+  <si>
+    <t>Br Sinaga</t>
+  </si>
+  <si>
+    <t>036_1</t>
+  </si>
+  <si>
+    <t>Jeverson Simanihuruk</t>
+  </si>
+  <si>
+    <t>Eva Nella br Panjaitan</t>
+  </si>
+  <si>
+    <t>Jesica br Manihuruk</t>
+  </si>
+  <si>
+    <t>Jeniver br Manihuruk</t>
+  </si>
+  <si>
+    <t>Manihuruk</t>
+  </si>
+  <si>
+    <t>037_1</t>
+  </si>
+  <si>
+    <t>Theodorus Girsang</t>
+  </si>
+  <si>
+    <t>Rosi Rosmawati</t>
+  </si>
+  <si>
+    <t>Genevi br Girsang</t>
+  </si>
+  <si>
+    <t>038_1</t>
+  </si>
+  <si>
+    <t>St. Ir Saud Pakpahan</t>
+  </si>
+  <si>
+    <t>Csy. Florida Nirma Damanik</t>
+  </si>
+  <si>
+    <t>Jose Christian D. Pakpahan</t>
+  </si>
+  <si>
+    <t>039_1</t>
+  </si>
+  <si>
+    <t>St. Sando Sinaga</t>
+  </si>
+  <si>
+    <t>Irene Fransisca br Tarigan</t>
+  </si>
+  <si>
+    <t>Aurel br Sinaga</t>
+  </si>
+  <si>
+    <t>Marshal Sinaga</t>
+  </si>
+  <si>
+    <t>040_1</t>
+  </si>
+  <si>
+    <t>Csy. Heveri Wisdi Purba</t>
+  </si>
+  <si>
+    <t>St. Srily O Saragih</t>
+  </si>
+  <si>
+    <t>Brayden Alvaro Purba</t>
+  </si>
+  <si>
+    <t>041_1</t>
+  </si>
+  <si>
+    <t>Monang Saragih</t>
+  </si>
+  <si>
+    <t>Rosmaida br Sipayung</t>
+  </si>
+  <si>
+    <t>Chelsie br Saragih</t>
+  </si>
+  <si>
+    <t>Abram Cristian Saragih</t>
+  </si>
+  <si>
+    <t>Marselo Lukas F. Saragih</t>
+  </si>
+  <si>
+    <t>042_1</t>
+  </si>
+  <si>
+    <t>NS Manullang</t>
+  </si>
+  <si>
+    <t>St. Sri Apriaty Saragih</t>
+  </si>
+  <si>
+    <t>Monotius Manullang</t>
+  </si>
+  <si>
+    <t>Cristy br Manullang</t>
+  </si>
+  <si>
+    <t>Sandrio Manullang</t>
+  </si>
+  <si>
+    <t>043_1</t>
+  </si>
+  <si>
+    <t>Johannes Tumpak Sidabalok</t>
+  </si>
+  <si>
+    <t>Indravenni br Damanik</t>
+  </si>
+  <si>
+    <t>Hilary Fatricia br Sidabalok</t>
+  </si>
+  <si>
+    <t>Alfred Christian Sidabalok</t>
+  </si>
+  <si>
+    <t>044_1</t>
+  </si>
+  <si>
+    <t>Agus Syahputra Purba</t>
+  </si>
+  <si>
+    <t>Csy. Rina Ervina Saragih</t>
+  </si>
+  <si>
+    <t>045_1</t>
+  </si>
+  <si>
+    <t>Ricko J Damanik</t>
+  </si>
+  <si>
+    <t>Rona br Sihombing</t>
+  </si>
+  <si>
+    <t>Br Damanik</t>
+  </si>
+  <si>
+    <t>046_1</t>
+  </si>
+  <si>
+    <t>Jamailam Saragih</t>
+  </si>
+  <si>
+    <t>St. Nursiana Purba</t>
+  </si>
+  <si>
+    <t>Andi M Saragih</t>
+  </si>
+  <si>
+    <t>Jonni Partap Saragih</t>
+  </si>
+  <si>
+    <t>047_1</t>
+  </si>
+  <si>
+    <t>Hermanto Saragih</t>
+  </si>
+  <si>
+    <t>St. Lisnaria Girsang</t>
+  </si>
+  <si>
+    <t>Lasma Sintia br Saragih</t>
+  </si>
+  <si>
+    <t>049_1</t>
+  </si>
+  <si>
+    <t>Tama J Manihuruk</t>
+  </si>
+  <si>
+    <t>Hotmian br Gultom</t>
+  </si>
+  <si>
+    <t>050_0</t>
+  </si>
+  <si>
+    <t>Risnauli br Hutasoit</t>
+  </si>
+  <si>
+    <t>Doli Abdi Sinaga</t>
+  </si>
+  <si>
+    <t>051_1</t>
+  </si>
+  <si>
+    <t>St. Yusuf Hariandi Girsang</t>
+  </si>
+  <si>
+    <t>Samisara br Aritonang</t>
+  </si>
+  <si>
+    <t>Ruth Abigail Girsang</t>
+  </si>
+  <si>
+    <t>Sean Felix Girsang</t>
+  </si>
+  <si>
+    <t>052_1</t>
+  </si>
+  <si>
+    <t>Amar Sinaga</t>
+  </si>
+  <si>
+    <t>Friska Purba</t>
+  </si>
+  <si>
+    <t>Butet</t>
+  </si>
+  <si>
+    <t>053_1</t>
+  </si>
+  <si>
+    <t>Alboin Hutasoit</t>
+  </si>
+  <si>
+    <t>Inurina br Sidauruk</t>
+  </si>
+  <si>
+    <t>Marli Eparida br Hutasoit</t>
+  </si>
+  <si>
+    <t>Romauli Hutasoit</t>
+  </si>
+  <si>
+    <t>Sasmita Hutasoit</t>
+  </si>
+  <si>
+    <t>Raja Hotmaruli Tua Hutasoit</t>
+  </si>
+  <si>
+    <t>054_1</t>
+  </si>
+  <si>
+    <t>Lerwinson Sitio</t>
+  </si>
+  <si>
+    <t>Aslina Esteria br Tampubolon</t>
+  </si>
+  <si>
+    <t>055_1</t>
+  </si>
+  <si>
+    <t>Budianto Hamonangan Saragih</t>
+  </si>
+  <si>
+    <t>Ervina Sinaga</t>
+  </si>
+  <si>
+    <t>Loma Saragih</t>
+  </si>
+  <si>
+    <t>056_1</t>
+  </si>
+  <si>
+    <t>Csy. Bambang Saragih</t>
+  </si>
+  <si>
+    <t>Lusianna Sembiring</t>
+  </si>
+  <si>
+    <t>Frenzo A Saragih</t>
+  </si>
+  <si>
+    <t>057_1</t>
+  </si>
+  <si>
+    <t>Martin R Sinaga</t>
+  </si>
+  <si>
+    <t>Chrisma Duma br Siahaan</t>
+  </si>
+  <si>
+    <t>058_1</t>
+  </si>
+  <si>
+    <t>Randy Gusto Purba</t>
+  </si>
+  <si>
+    <t>Yenisa U br Tampubolon</t>
+  </si>
+  <si>
+    <t>059_1</t>
+  </si>
+  <si>
+    <t>Phrams Haloho</t>
+  </si>
+  <si>
+    <t>Hanna Y Purba</t>
+  </si>
+  <si>
+    <t>060_1</t>
+  </si>
+  <si>
+    <t>Dollar P Tondang</t>
+  </si>
+  <si>
+    <t>Melanie Saragih</t>
+  </si>
+  <si>
+    <t>Br Tondang</t>
+  </si>
+  <si>
+    <t>061_1</t>
+  </si>
+  <si>
+    <t>Hotmauli Purba</t>
+  </si>
+  <si>
+    <t>Intan Pohan</t>
+  </si>
+  <si>
+    <t>Lionel M Purba</t>
+  </si>
+  <si>
+    <t>062_1</t>
+  </si>
+  <si>
+    <t>St. Robert Thomson Girsang</t>
+  </si>
+  <si>
+    <t>Saria Ukur Sinaga</t>
+  </si>
+  <si>
+    <t>Christin Gerin Girsang</t>
+  </si>
+  <si>
+    <t>Steven Immanuel C Girsang</t>
+  </si>
+  <si>
+    <t>Jeconio Christian Girsang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +867,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -223,7 +919,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -417,18 +1113,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,16 +1154,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>15102</v>
+        <v>24648</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -475,16 +1171,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>29606</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -492,16 +1185,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>34489</v>
+        <v>26398</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -509,33 +1202,33 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>34895</v>
+        <v>25678</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>34786</v>
+        <v>22533</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -546,16 +1239,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>42224</v>
+        <v>20070</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,16 +1256,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>43274</v>
+        <v>20555</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,15 +1273,2786 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>43901</v>
+        <v>30534</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30929</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>23758</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>33762</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>23811</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>25819</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>39859</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>14862</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>26940</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>29545</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>27679</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>36082</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>36787</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>33173</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43242</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>25571</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>33535</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>34918</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>36113</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>16932</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>19983</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>18914</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>23283</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>24773</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>34572</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>34957</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>20009</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>19124</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>30676</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>32967</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>34212</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>15784</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>26476</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>36684</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>37480</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>22412</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>22825</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>22713</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>34452</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>36204</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>37194</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>24710</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>26905</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>34874</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>21544</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>31316</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>33060</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>15964</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>23170</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>19527</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>20509</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>29422</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>19926</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>36239</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>17765</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>37552</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
+        <v>39441</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2">
+        <v>19957</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>22476</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>33713</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>40300</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>26535</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>30308</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>40498</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>39624</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>40016</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2">
+        <v>41083</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2">
+        <v>27595</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>30065</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>37773</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2">
+        <v>40411</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2">
+        <v>24515</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2">
+        <v>28377</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" t="s">
+        <v>150</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2">
+        <v>40086</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2">
+        <v>28919</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2">
+        <v>41748</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>156</v>
+      </c>
+      <c r="B114" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>28987</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
+        <v>38886</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2">
+        <v>40219</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>156</v>
+      </c>
+      <c r="B118" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2">
+        <v>42129</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" t="s">
+        <v>164</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" t="s">
+        <v>169</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2">
+        <v>25684</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B125" t="s">
+        <v>170</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>26799</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" t="s">
+        <v>171</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2">
+        <v>39625</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>168</v>
+      </c>
+      <c r="B127" t="s">
+        <v>172</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2">
+        <v>40143</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" t="s">
+        <v>174</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2">
+        <v>29434</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2">
+        <v>41427</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>176</v>
+      </c>
+      <c r="B133" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>176</v>
+      </c>
+      <c r="B134" t="s">
+        <v>179</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>180</v>
+      </c>
+      <c r="B135" t="s">
+        <v>181</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" s="2">
+        <v>25853</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>25402</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" t="s">
+        <v>183</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" s="2">
+        <v>36586</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>180</v>
+      </c>
+      <c r="B138" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" s="2">
+        <v>41272</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>185</v>
+      </c>
+      <c r="B139" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2">
+        <v>28371</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" t="s">
+        <v>187</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>29140</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>185</v>
+      </c>
+      <c r="B141" t="s">
+        <v>188</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>189</v>
+      </c>
+      <c r="B142" t="s">
+        <v>190</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" t="s">
+        <v>191</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" t="s">
+        <v>41</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>192</v>
+      </c>
+      <c r="B145" t="s">
+        <v>193</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>28866</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>192</v>
+      </c>
+      <c r="B146" t="s">
+        <v>194</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2">
+        <v>36769</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>195</v>
+      </c>
+      <c r="B147" t="s">
+        <v>196</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>195</v>
+      </c>
+      <c r="B148" t="s">
+        <v>197</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>27077</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>195</v>
+      </c>
+      <c r="B149" t="s">
+        <v>198</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>37237</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>195</v>
+      </c>
+      <c r="B150" t="s">
+        <v>199</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" s="2">
+        <v>39000</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>200</v>
+      </c>
+      <c r="B151" t="s">
+        <v>201</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" s="2">
+        <v>33150</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>200</v>
+      </c>
+      <c r="B152" t="s">
+        <v>202</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>34673</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>200</v>
+      </c>
+      <c r="B153" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>204</v>
+      </c>
+      <c r="B154" t="s">
+        <v>205</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>204</v>
+      </c>
+      <c r="B155" t="s">
+        <v>206</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>17324</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>204</v>
+      </c>
+      <c r="B156" t="s">
+        <v>207</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156" s="2">
+        <v>28285</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>204</v>
+      </c>
+      <c r="B157" t="s">
+        <v>208</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>29587</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>204</v>
+      </c>
+      <c r="B158" t="s">
+        <v>209</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>30472</v>
+      </c>
+      <c r="E158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>204</v>
+      </c>
+      <c r="B159" t="s">
+        <v>210</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>211</v>
+      </c>
+      <c r="B160" t="s">
+        <v>212</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>211</v>
+      </c>
+      <c r="B161" t="s">
+        <v>213</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>214</v>
+      </c>
+      <c r="B162" t="s">
+        <v>215</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>214</v>
+      </c>
+      <c r="B163" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>214</v>
+      </c>
+      <c r="B164" t="s">
+        <v>217</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>218</v>
+      </c>
+      <c r="B165" t="s">
+        <v>219</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>218</v>
+      </c>
+      <c r="B166" t="s">
+        <v>220</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>218</v>
+      </c>
+      <c r="B167" t="s">
+        <v>221</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" t="s">
+        <v>223</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" t="s">
+        <v>224</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>225</v>
+      </c>
+      <c r="B170" t="s">
+        <v>226</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>225</v>
+      </c>
+      <c r="B171" t="s">
+        <v>227</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>228</v>
+      </c>
+      <c r="B172" t="s">
+        <v>229</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>228</v>
+      </c>
+      <c r="B173" t="s">
+        <v>230</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>231</v>
+      </c>
+      <c r="B174" t="s">
+        <v>232</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>231</v>
+      </c>
+      <c r="B175" t="s">
+        <v>233</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>231</v>
+      </c>
+      <c r="B176" t="s">
+        <v>234</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>235</v>
+      </c>
+      <c r="B177" t="s">
+        <v>236</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>235</v>
+      </c>
+      <c r="B178" t="s">
+        <v>237</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>235</v>
+      </c>
+      <c r="B179" t="s">
+        <v>238</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>239</v>
+      </c>
+      <c r="B180" t="s">
+        <v>240</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" s="2">
+        <v>25758</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>239</v>
+      </c>
+      <c r="B181" t="s">
+        <v>241</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>28323</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>239</v>
+      </c>
+      <c r="B182" t="s">
+        <v>242</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>37159</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>239</v>
+      </c>
+      <c r="B183" t="s">
+        <v>243</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" s="2">
+        <v>38332</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>239</v>
+      </c>
+      <c r="B184" t="s">
+        <v>244</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" s="2">
+        <v>42332</v>
+      </c>
+      <c r="E184">
         <v>4</v>
       </c>
     </row>

--- a/public/excel/Sektor 3.xlsx
+++ b/public/excel/Sektor 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMER\LARAVEL\gkps-sidorame\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD37D169-9B34-443C-A303-089B1522C157}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBD08B2-1123-4B2B-8892-632B04C7EFB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="249">
   <si>
     <t>KODE KELUARGA</t>
   </si>
@@ -760,6 +760,18 @@
   </si>
   <si>
     <t>Jeconio Christian Girsang</t>
+  </si>
+  <si>
+    <t>048_1</t>
+  </si>
+  <si>
+    <t>St. Bertin Purba</t>
+  </si>
+  <si>
+    <t>Netty Sinaga</t>
+  </si>
+  <si>
+    <t>Grase Tio Ulina br Purba</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145:E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,10 +3420,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="B142" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -3422,10 +3434,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="B143" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3436,13 +3448,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="B144" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>41674</v>
       </c>
       <c r="E144">
         <v>4</v>
@@ -3450,64 +3465,58 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B145" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
-        <v>28866</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B146" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146" s="2">
-        <v>36769</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B147" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B148" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148" s="2">
-        <v>27077</v>
+        <v>28866</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -3515,16 +3524,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B149" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" s="2">
-        <v>37237</v>
+        <v>36769</v>
       </c>
       <c r="E149">
         <v>3</v>
@@ -3535,61 +3544,61 @@
         <v>195</v>
       </c>
       <c r="B150" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
-      <c r="D150" s="2">
-        <v>39000</v>
-      </c>
       <c r="E150">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B151" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" s="2">
-        <v>33150</v>
+        <v>27077</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B152" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152" s="2">
-        <v>34673</v>
+        <v>37237</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B153" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D153" s="2">
+        <v>39000</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -3597,13 +3606,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B154" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C154">
         <v>1</v>
+      </c>
+      <c r="D154" s="2">
+        <v>33150</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -3611,16 +3623,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B155" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="D155" s="2">
-        <v>17324</v>
+        <v>34673</v>
       </c>
       <c r="E155">
         <v>2</v>
@@ -3628,19 +3640,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B156" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
-      <c r="D156" s="2">
-        <v>28285</v>
-      </c>
       <c r="E156">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,16 +3657,13 @@
         <v>204</v>
       </c>
       <c r="B157" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157" s="2">
-        <v>29587</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,16 +3671,16 @@
         <v>204</v>
       </c>
       <c r="B158" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158" s="2">
-        <v>30472</v>
+        <v>17324</v>
       </c>
       <c r="E158">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,10 +3688,13 @@
         <v>204</v>
       </c>
       <c r="B159" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>28285</v>
       </c>
       <c r="E159">
         <v>3</v>
@@ -3693,80 +3702,86 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B160" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>29587</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B161" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
+      <c r="D161" s="2">
+        <v>30472</v>
+      </c>
       <c r="E161">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B162" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B164" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B165" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -3777,10 +3792,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B166" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3791,10 +3806,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B167" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3805,10 +3820,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B168" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -3819,10 +3834,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B169" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3833,108 +3848,108 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B170" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B171" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B172" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B173" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B174" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B175" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B176" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B177" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -3945,10 +3960,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B178" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3959,13 +3974,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B179" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179">
         <v>4</v>
@@ -3973,16 +3988,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B180" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C180">
         <v>1</v>
-      </c>
-      <c r="D180" s="2">
-        <v>25758</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -3990,16 +4002,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B181" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C181">
         <v>0</v>
-      </c>
-      <c r="D181" s="2">
-        <v>28323</v>
       </c>
       <c r="E181">
         <v>2</v>
@@ -4007,19 +4016,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B182" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2">
-        <v>37159</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4027,16 +4033,16 @@
         <v>239</v>
       </c>
       <c r="B183" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183" s="2">
-        <v>38332</v>
+        <v>25758</v>
       </c>
       <c r="E183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4044,15 +4050,66 @@
         <v>239</v>
       </c>
       <c r="B184" t="s">
+        <v>241</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>28323</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>239</v>
+      </c>
+      <c r="B185" t="s">
+        <v>242</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>37159</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>239</v>
+      </c>
+      <c r="B186" t="s">
+        <v>243</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" s="2">
+        <v>38332</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>239</v>
+      </c>
+      <c r="B187" t="s">
         <v>244</v>
       </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184" s="2">
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" s="2">
         <v>42332</v>
       </c>
-      <c r="E184">
+      <c r="E187">
         <v>4</v>
       </c>
     </row>
